--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,6 +8,11 @@
     <sheet state="visible" name="Form Responses 3" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Form Responses 4" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Form Responses 5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Form Responses 6" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Form Responses 7" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Form Responses 8" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Form Responses 9" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Form Responses 10" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="275">
   <si>
     <t>Timestamp</t>
   </si>
@@ -555,6 +560,372 @@
   </si>
   <si>
     <t>Do you think that paid education should exist?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Kate Bush?</t>
+  </si>
+  <si>
+    <t>Are you for or against the airport starting at night?</t>
+  </si>
+  <si>
+    <t>Do you enjoy cycling?</t>
+  </si>
+  <si>
+    <t>Do you like Kanye West's music?</t>
+  </si>
+  <si>
+    <t>Do you think Venus Williams is a great tennis player?</t>
+  </si>
+  <si>
+    <t>Do you think that Ghosts is a good game?</t>
+  </si>
+  <si>
+    <t>Do you think Breaking Bad is one of the best shows on television?</t>
+  </si>
+  <si>
+    <t>What is your opinion on the use of the Internet?</t>
+  </si>
+  <si>
+    <t>What is the best dating app?</t>
+  </si>
+  <si>
+    <t>Do you think that vegan food is healthy for you?</t>
+  </si>
+  <si>
+    <t>Do you think Boris Johnson is fit to be the Prime Minister of the United Kingdom?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Jeff Bezos?</t>
+  </si>
+  <si>
+    <t>Is it just me or do neck pillows not work?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Taylor Swift?</t>
+  </si>
+  <si>
+    <t>TikTok or Musically?</t>
+  </si>
+  <si>
+    <t>Do you like Bansky's art?</t>
+  </si>
+  <si>
+    <t>Do you think that Christmas should be celebrated earlier in the year?</t>
+  </si>
+  <si>
+    <t>Do you think you could survive without the internet for 1 week?</t>
+  </si>
+  <si>
+    <t>Premier league or La Liga?</t>
+  </si>
+  <si>
+    <t>Are you in favor of Meghan Markle starting to work with the Royal Family?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Dungeons and Dragons?</t>
+  </si>
+  <si>
+    <t>Is Banksy cool or cringey?</t>
+  </si>
+  <si>
+    <t>Are the current heat waves because of climate change?</t>
+  </si>
+  <si>
+    <t>Do you like Poetry?</t>
+  </si>
+  <si>
+    <t>Do you think that poetry is important?</t>
+  </si>
+  <si>
+    <t>Is Cricket boring?</t>
+  </si>
+  <si>
+    <t>Did you like High school?</t>
+  </si>
+  <si>
+    <t>Do you think Jennifer Lopez is the best singer in the world?</t>
+  </si>
+  <si>
+    <t>Beyonce or Rihanna?</t>
+  </si>
+  <si>
+    <t>Are you a believer in Astrology?</t>
+  </si>
+  <si>
+    <t>Is it bad to constantly buy stuff on Amazon?</t>
+  </si>
+  <si>
+    <t>Would you use clubhouse?</t>
+  </si>
+  <si>
+    <t>Do you like going to the Gym?</t>
+  </si>
+  <si>
+    <t>How do you feel about surfing?</t>
+  </si>
+  <si>
+    <t>Do you prefer hotels or Airbnbs?</t>
+  </si>
+  <si>
+    <t>Justin Bieber fans are annoying, right?</t>
+  </si>
+  <si>
+    <t>What is your opinion on painting?</t>
+  </si>
+  <si>
+    <t>Would you like to be an influencer?</t>
+  </si>
+  <si>
+    <t>Will Vettel win another title?</t>
+  </si>
+  <si>
+    <t>Are you a vegan?</t>
+  </si>
+  <si>
+    <t>Are you for or against Gym starting at school?</t>
+  </si>
+  <si>
+    <t>Painting or sculpture?</t>
+  </si>
+  <si>
+    <t>Do you think marriage is important?</t>
+  </si>
+  <si>
+    <t>Are you for or against Gym starting?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Beyonce?</t>
+  </si>
+  <si>
+    <t>Do you think that baseball is a good sport?</t>
+  </si>
+  <si>
+    <t>What are your thoughts on wind turbines?</t>
+  </si>
+  <si>
+    <t>Are you in favor of Amazon starting to sell groceries?</t>
+  </si>
+  <si>
+    <t>High school or college?</t>
+  </si>
+  <si>
+    <t>Do you think that pizza is a healthy food?</t>
+  </si>
+  <si>
+    <t>What is your opinion on baseball?</t>
+  </si>
+  <si>
+    <t>Do you prefer House Music or Drum and Bass?</t>
+  </si>
+  <si>
+    <t>Are you worried about the spread of monkey pox?</t>
+  </si>
+  <si>
+    <t>Do you think Boris Johnson would make a good Prime Minister?</t>
+  </si>
+  <si>
+    <t>Do you think that women's football is a good way to get more girls interested in sports?</t>
+  </si>
+  <si>
+    <t>How old is the queen going to get?</t>
+  </si>
+  <si>
+    <t>Are you a gardener?</t>
+  </si>
+  <si>
+    <t>What is your opinion on FaceTime?</t>
+  </si>
+  <si>
+    <t>Are you in favor of people working from home?</t>
+  </si>
+  <si>
+    <t>What is your opinion on refugees?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Kate Bush?</t>
+  </si>
+  <si>
+    <t>Did you ever spend time on clubhouse?</t>
+  </si>
+  <si>
+    <t>What is your opinion on exams?</t>
+  </si>
+  <si>
+    <t>Do you think Venus and Serena like each other?</t>
+  </si>
+  <si>
+    <t>Poetry or prose?</t>
+  </si>
+  <si>
+    <t>What is your opinion on coffee?</t>
+  </si>
+  <si>
+    <t>Do you think Boris Johnson is a good choice for Prime Minister?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Kanye West?</t>
+  </si>
+  <si>
+    <t>Are you for recycling?</t>
+  </si>
+  <si>
+    <t>Do you think you spend too much time on the internet?</t>
+  </si>
+  <si>
+    <t>Which music genre do you prefer?</t>
+  </si>
+  <si>
+    <t>Do you believe in Astrology?</t>
+  </si>
+  <si>
+    <t>Cats or Dogs?</t>
+  </si>
+  <si>
+    <t>Do you think Batgirl's new costume is too revealing?</t>
+  </si>
+  <si>
+    <t>Do you prefer Zoom or FaceTime?</t>
+  </si>
+  <si>
+    <t>Do you think Donald Trump's hair is stupid?</t>
+  </si>
+  <si>
+    <t>Do you like hot weather or do you hate it?</t>
+  </si>
+  <si>
+    <t>Will Donald win the next election?</t>
+  </si>
+  <si>
+    <t>Do you prefer travelling in the car or on the train?</t>
+  </si>
+  <si>
+    <t>Are you for or against cycling as a form of transportation?</t>
+  </si>
+  <si>
+    <t>Do you think 'cancelling' is an appropriate way to deal with controversy?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Venus Williams?</t>
+  </si>
+  <si>
+    <t>Are you in favor of Jeff Bezos starting up a new space company?</t>
+  </si>
+  <si>
+    <t>Batgirl or Supergirl?</t>
+  </si>
+  <si>
+    <t>Do you enjoy Christmas?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Dungeons and Dragons?</t>
+  </si>
+  <si>
+    <t>Do you think you would enjoy driving in a Formula 1 car?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Golf?</t>
+  </si>
+  <si>
+    <t>What is your opinion on going to the gym?</t>
+  </si>
+  <si>
+    <t>Do you think running is a good way to stay in shape?</t>
+  </si>
+  <si>
+    <t>Do you love shopping or hate shopping?</t>
+  </si>
+  <si>
+    <t>Are you in favor of Netflix starting a subscription service?</t>
+  </si>
+  <si>
+    <t>Are vegan foods becoming better?</t>
+  </si>
+  <si>
+    <t>Would you like to try surfing?</t>
+  </si>
+  <si>
+    <t>Should a helmet be required for cycling by law?</t>
+  </si>
+  <si>
+    <t>Do you think that school should start later in the day?</t>
+  </si>
+  <si>
+    <t>Is influencer a real job?</t>
+  </si>
+  <si>
+    <t>Do you think everyone has a responsibility to recycle?</t>
+  </si>
+  <si>
+    <t>Do you think that Amazon is a monopoly?</t>
+  </si>
+  <si>
+    <t>Did you like Meghan Markle in Suits?</t>
+  </si>
+  <si>
+    <t>Amazon or Barnes and Noble?</t>
+  </si>
+  <si>
+    <t>Are you in favor of Mo Sallah starting for the Reds?</t>
+  </si>
+  <si>
+    <t>Do you think Squid Game was good or was it just another passing trend?</t>
+  </si>
+  <si>
+    <t>Amazon or eBay?</t>
+  </si>
+  <si>
+    <t>Do you like the sound crickets make?</t>
+  </si>
+  <si>
+    <t>Are you for or against refugees starting new lives in America?</t>
+  </si>
+  <si>
+    <t>Gym or no gym?</t>
+  </si>
+  <si>
+    <t>Was Brexit the right choice?</t>
+  </si>
+  <si>
+    <t>Do you think road trips are a fun way to travel?</t>
+  </si>
+  <si>
+    <t>Do you think Amazon is a monopoly?</t>
+  </si>
+  <si>
+    <t>Shopping malls or farmers markets?</t>
+  </si>
+  <si>
+    <t>Do you like staying at Hotels?</t>
+  </si>
+  <si>
+    <t>High school, did you love it or hate it?</t>
+  </si>
+  <si>
+    <t>Did you notice that everybody is into Dungeons and Dragons lately?</t>
+  </si>
+  <si>
+    <t>Who has better hair Ed Sheeran or Rupert Grint?</t>
+  </si>
+  <si>
+    <t>Do you think that Meghan Markle is a good fit for the British royal family?</t>
+  </si>
+  <si>
+    <t>Do you like to watch Disney films?</t>
+  </si>
+  <si>
+    <t>Are you a fan of Jellyfish?</t>
+  </si>
+  <si>
+    <t>What is your opinion on Football?</t>
+  </si>
+  <si>
+    <t>Do you think high school should start later in the morning?</t>
+  </si>
+  <si>
+    <t>Do you believe in ghosts?</t>
+  </si>
+  <si>
+    <t>Do you think dating apps are a good way to meet people?</t>
   </si>
 </sst>
 </file>
@@ -618,6 +989,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -631,6 +1006,22 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -841,6 +1232,341 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
+    <col customWidth="1" min="4" max="40" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.70755792824</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44788.83447800926</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="40" width="18.88"/>
   </cols>
   <sheetData>
@@ -852,94 +1578,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
@@ -950,10 +1676,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44788.70755792824</v>
+        <v>44788.81826181713</v>
       </c>
       <c r="B2" s="3">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -962,22 +1688,22 @@
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>35</v>
@@ -986,22 +1712,22 @@
         <v>35</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>34</v>
@@ -1010,19 +1736,19 @@
         <v>34</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>34</v>
@@ -1034,22 +1760,126 @@
         <v>34</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AH2" s="4">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44788.82511902778</v>
+      </c>
+      <c r="B3" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1900,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="40" width="18.88"/>
+    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+    <col customWidth="1" min="4" max="40" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1278,6 +2110,110 @@
         <v>36</v>
       </c>
       <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44788.78254537037</v>
+      </c>
+      <c r="B3" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -1299,7 +2235,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="40" width="18.88"/>
+    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="26.5"/>
+    <col customWidth="1" min="4" max="40" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1632,7 +2570,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="40" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="6.88"/>
+    <col customWidth="1" min="3" max="40" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1737,6 +2677,110 @@
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.785310057865</v>
+      </c>
+      <c r="B2" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1864,6 +2908,1650 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.799792986116</v>
+      </c>
+      <c r="B2" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44789.375939074074</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="40" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.89586498843</v>
+      </c>
+      <c r="B2" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44788.90031538194</v>
+      </c>
+      <c r="B3" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>44788.90088903935</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>44788.90857747685</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="40" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.82748712963</v>
+      </c>
+      <c r="B2" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="40" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44788.92216590278</v>
+      </c>
+      <c r="B2" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44789.51390554398</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="40" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>44789.50677766204</v>
+      </c>
+      <c r="B2" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44789.51008548611</v>
+      </c>
+      <c r="B3" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="276">
   <si>
     <t>Timestamp</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>Amazon or eBay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you be happy to participate in a short exit interview? If so, please leave your contact details in the box below. </t>
   </si>
   <si>
     <t>Do you like the sound crickets make?</t>
@@ -963,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -972,6 +975,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1578,37 +1584,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>240</v>
@@ -1623,37 +1629,37 @@
         <v>223</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>215</v>
@@ -1665,7 +1671,7 @@
         <v>111</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
@@ -3657,6 +3663,110 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>44789.55910398148</v>
+      </c>
+      <c r="B6" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4237,7 +4347,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="40" width="18.88"/>
+    <col customWidth="1" min="1" max="41" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4343,6 +4453,9 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -4447,6 +4560,7 @@
       <c r="AH2" s="4">
         <v>1.0</v>
       </c>
+      <c r="AI2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -4551,6 +4665,7 @@
       <c r="AH3" s="4">
         <v>1.0</v>
       </c>
+      <c r="AI3" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
